--- a/uploadFile/会员导入模板.xlsx
+++ b/uploadFile/会员导入模板.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,22 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-1-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,11 +125,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -463,7 +482,7 @@
         <v>12.3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -480,13 +499,47 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>99</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>10086</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/uploadFile/会员导入模板.xlsx
+++ b/uploadFile/会员导入模板.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,34 +43,6 @@
   </si>
   <si>
     <t>aaaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-1-25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否领取红包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-1-26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -441,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -449,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,14 +439,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -484,14 +450,9 @@
       <c r="C2">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -501,16 +462,11 @@
       <c r="C3">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -518,16 +474,11 @@
       <c r="C4">
         <v>99</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>10086</v>
@@ -535,12 +486,7 @@
       <c r="C5">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
